--- a/01_evalue_TAG/ONT/03_over150K_fail_read/150K以上fail_read_10K以上SSR_ratio.xlsx
+++ b/01_evalue_TAG/ONT/03_over150K_fail_read/150K以上fail_read_10K以上SSR_ratio.xlsx
@@ -8,24 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkingFiles\update_Mo17\scripts\update-Mo17\01_evalue_TAG\ONT\03_over150K_fail_read\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B48D6AC-D196-48B7-86FE-3F6284BFAFF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE56C80-6BFB-42C5-8372-565774396105}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$1685</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$1685</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="1688">
   <si>
     <t>fcf4f4b5-c4b4-4b61-8f57-b826dc0aea7a</t>
   </si>
@@ -5088,6 +5101,10 @@
   </si>
   <si>
     <t>read length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5095,7 +5112,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5105,6 +5126,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -5128,14 +5165,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5413,15 +5457,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1685"/>
+  <dimension ref="A1:N1685"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1684</v>
       </c>
@@ -5431,8 +5482,11 @@
       <c r="C1" t="s">
         <v>1686</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5442,8 +5496,25 @@
       <c r="C2">
         <v>249588</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>0.25</v>
+      </c>
+      <c r="F2">
+        <v>31045577</v>
+      </c>
+      <c r="G2">
+        <f>F2/46</f>
+        <v>674903.84782608692</v>
+      </c>
+      <c r="H2">
+        <f>G2-390000</f>
+        <v>284903.84782608692</v>
+      </c>
+      <c r="K2" s="1">
+        <v>210758334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5453,8 +5524,25 @@
       <c r="C3">
         <v>198371</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>39465007</v>
+      </c>
+      <c r="G3">
+        <f>F3/46</f>
+        <v>857934.93478260865</v>
+      </c>
+      <c r="H3">
+        <f>G3-390000</f>
+        <v>467934.93478260865</v>
+      </c>
+      <c r="K3">
+        <v>243683038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5464,8 +5552,11 @@
       <c r="C4">
         <v>157908</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>29379330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5475,8 +5566,11 @@
       <c r="C5">
         <v>216777</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>240186242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5486,8 +5580,11 @@
       <c r="C6">
         <v>377094</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>91334113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5497,8 +5594,11 @@
       <c r="C7">
         <v>192283</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>253366856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5508,8 +5608,11 @@
       <c r="C8">
         <v>388273</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>176624036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5519,8 +5622,11 @@
       <c r="C9">
         <v>482145</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>195817262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5530,8 +5636,11 @@
       <c r="C10">
         <v>190568</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>76448869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5541,8 +5650,11 @@
       <c r="C11">
         <v>176967</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>282134928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5552,8 +5664,11 @@
       <c r="C12">
         <v>206293</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>294943239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5563,8 +5678,11 @@
       <c r="C13">
         <v>171597</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>319906426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5574,8 +5692,11 @@
       <c r="C14">
         <v>695091</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>298946449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5585,8 +5706,11 @@
       <c r="C15">
         <v>192267</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>308437268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5596,8 +5720,11 @@
       <c r="C16">
         <v>328580</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>326506851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5607,8 +5734,11 @@
       <c r="C17">
         <v>158758</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>209011221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5618,8 +5748,11 @@
       <c r="C18">
         <v>343490</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>427304017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5629,8 +5762,11 @@
       <c r="C19">
         <v>165345</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>284708530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5640,8 +5776,11 @@
       <c r="C20">
         <v>207750</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>335813619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5651,8 +5790,11 @@
       <c r="C21">
         <v>188083</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>690537805</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5662,8 +5804,11 @@
       <c r="C22">
         <v>222797</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>472988103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5673,8 +5818,11 @@
       <c r="C23">
         <v>209879</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>144778454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -5684,8 +5832,11 @@
       <c r="C24">
         <v>221902</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>1125469367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5695,8 +5846,11 @@
       <c r="C25">
         <v>790532</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>233482792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -5706,8 +5860,11 @@
       <c r="C26">
         <v>298143</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>345168678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -5717,8 +5874,11 @@
       <c r="C27">
         <v>170623</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>558714646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -5728,8 +5888,11 @@
       <c r="C28">
         <v>291323</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>527013155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -5739,8 +5902,11 @@
       <c r="C29">
         <v>719050</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>192326972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5750,8 +5916,11 @@
       <c r="C30">
         <v>211723</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>475809662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5761,8 +5930,11 @@
       <c r="C31">
         <v>204386</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>173539630</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5772,8 +5944,11 @@
       <c r="C32">
         <v>264931</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>91456792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -5783,8 +5958,11 @@
       <c r="C33">
         <v>257887</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>96023217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5794,8 +5972,11 @@
       <c r="C34">
         <v>393990</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>428706250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5805,8 +5986,11 @@
       <c r="C35">
         <v>153846</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>393207279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5816,8 +6000,11 @@
       <c r="C36">
         <v>207316</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>286912844</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5827,8 +6014,11 @@
       <c r="C37">
         <v>200851</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>410062407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5838,8 +6028,23 @@
       <c r="C38">
         <v>253985</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <f>SUM(K2:K37)</f>
+        <v>11251508681</v>
+      </c>
+      <c r="L38" s="2">
+        <v>87995375629</v>
+      </c>
+      <c r="M38" s="2">
+        <f>K38+L38</f>
+        <v>99246884310</v>
+      </c>
+      <c r="N38" s="3">
+        <f>M38/2160000000</f>
+        <v>45.947631625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5850,7 +6055,7 @@
         <v>157809</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5861,7 +6066,7 @@
         <v>169468</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5872,7 +6077,7 @@
         <v>181106</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5883,7 +6088,7 @@
         <v>201844</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -5894,7 +6099,7 @@
         <v>175045</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5905,7 +6110,7 @@
         <v>263764</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5916,7 +6121,7 @@
         <v>180347</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5927,7 +6132,7 @@
         <v>164196</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -5938,7 +6143,7 @@
         <v>211455</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
